--- a/database/imports/game/Fighters.xlsx
+++ b/database/imports/game/Fighters.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\oliver\dbgt\database\imports\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BA3520-1EAA-4450-A713-4E0D22233245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71BCDF-1AA3-45B7-8AC4-3322531E2B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10190" yWindow="3470" windowWidth="24050" windowHeight="13520" xr2:uid="{927729A4-4100-4AD3-9E50-E6FD35BB57B8}"/>
+    <workbookView xWindow="62865" yWindow="1830" windowWidth="18645" windowHeight="13515" xr2:uid="{927729A4-4100-4AD3-9E50-E6FD35BB57B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fighters" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>DBGT Fighters</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Goku</t>
   </si>
   <si>
-    <t>goku</t>
-  </si>
-  <si>
-    <t>saiyan</t>
-  </si>
-  <si>
     <t>Kid Goku</t>
   </si>
   <si>
@@ -93,42 +87,21 @@
     <t xml:space="preserve">Goku as a young child, with his tail still intact. </t>
   </si>
   <si>
-    <t>kid_goku</t>
-  </si>
-  <si>
-    <t>Super Saiyan Goku</t>
-  </si>
-  <si>
-    <t>super_saiyan_goku</t>
-  </si>
-  <si>
     <t>Goku having transcended and become the legendary Super Saiyan.</t>
   </si>
   <si>
     <t>Goku Kaioken</t>
   </si>
   <si>
-    <t>goku_kaioken</t>
-  </si>
-  <si>
     <t>Goku using the Kaioken technique, which doubles his attack, speed, and senses at the cost of his stamina.</t>
   </si>
   <si>
     <t>Krillin</t>
   </si>
   <si>
-    <t>krillin</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
     <t>Tien</t>
   </si>
   <si>
-    <t>tien</t>
-  </si>
-  <si>
     <t>Tien Shinhan is a disciplined, reclusive, and heavily devoted martial artists, and one of the most powerful Earthlings. He possesses a few non-human traits due to being descended from the alien Triclops race.</t>
   </si>
   <si>
@@ -141,22 +114,88 @@
     <t>Piccolo</t>
   </si>
   <si>
-    <t>piccolo</t>
-  </si>
-  <si>
-    <t>namekian</t>
-  </si>
-  <si>
     <t>The reincarnation of King Piccolo, a wise and cunning warrior and the former ruthless enemy of Goku.</t>
   </si>
   <si>
-    <t>king_piccolo</t>
-  </si>
-  <si>
     <t>King Piccolo</t>
   </si>
   <si>
     <t>An evil Namekian who once precipitated the Earth into utter mayhem and pandemonium, the evil counterpart of Kami.</t>
+  </si>
+  <si>
+    <t>Frieza</t>
+  </si>
+  <si>
+    <t>Frieza Second Form</t>
+  </si>
+  <si>
+    <t>Frieza is the emperor of Universe 7, who controlled his own imperialist army and is feared for his ruthlessness and power.</t>
+  </si>
+  <si>
+    <t>Frieza has grown to a great height and with a bulkier and more-defined build. His armor cannot contain his form and shatters, leaving his body fully exposed.</t>
+  </si>
+  <si>
+    <t>Frieza is the most brutish and imposing, with an extremely elongated skull. His nose melds into his mouth to form a crude beak, with spikes growing out of his back.</t>
+  </si>
+  <si>
+    <t>Frieza's true form. Though small and harmless looking, Frieza's power in this form dwarfs that of his predecessors.</t>
+  </si>
+  <si>
+    <t>Goku Super Saiyan</t>
+  </si>
+  <si>
+    <t>Frieza Third Form</t>
+  </si>
+  <si>
+    <t>Frieza Final Form</t>
+  </si>
+  <si>
+    <t>KID_GOKU</t>
+  </si>
+  <si>
+    <t>GOKU</t>
+  </si>
+  <si>
+    <t>GOKU_SUPER_SAIYAN</t>
+  </si>
+  <si>
+    <t>GOKU_KAIOKEN</t>
+  </si>
+  <si>
+    <t>KRILLIN</t>
+  </si>
+  <si>
+    <t>TIEN</t>
+  </si>
+  <si>
+    <t>KING_PICCOLO</t>
+  </si>
+  <si>
+    <t>PICCOLO</t>
+  </si>
+  <si>
+    <t>FRIEZA</t>
+  </si>
+  <si>
+    <t>FRIEZA_SECOND_FORM</t>
+  </si>
+  <si>
+    <t>FRIEZA_THIRD_FORM</t>
+  </si>
+  <si>
+    <t>FRIEZA_FINAL_FORM</t>
+  </si>
+  <si>
+    <t>NAMEKIAN</t>
+  </si>
+  <si>
+    <t>DEMON</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>SAIYAN</t>
   </si>
 </sst>
 </file>
@@ -230,14 +269,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,406 +591,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB0151-4FC2-40F8-8BF2-9DFDBC6AD7A6}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="184.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="184.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="32.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="32.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1">
+        <v>70</v>
+      </c>
+      <c r="L5" s="1">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="K9" s="1">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>90</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1">
+        <v>70</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2">
-        <v>25</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="F11" s="1">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="b">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G14" s="1">
         <v>70</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H14" s="1">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1">
+        <v>60</v>
+      </c>
+      <c r="J14" s="1">
         <v>70</v>
       </c>
-      <c r="I5" s="2">
-        <v>70</v>
-      </c>
-      <c r="J5" s="2">
-        <v>70</v>
-      </c>
-      <c r="K5" s="2">
-        <v>70</v>
-      </c>
-      <c r="L5" s="2">
-        <v>70</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="K14" s="1">
+        <v>90</v>
+      </c>
+      <c r="L14" s="1">
         <v>60</v>
       </c>
-      <c r="L8" s="2">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2">
-        <v>20</v>
-      </c>
-      <c r="L9" s="2">
-        <v>90</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2">
-        <v>70</v>
-      </c>
-      <c r="L10" s="2">
-        <v>100</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
